--- a/Bandprices_v1.xlsx
+++ b/Bandprices_v1.xlsx
@@ -2661,7 +2661,7 @@
   <dimension ref="A1:B755"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
